--- a/data/trans_orig/P12_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P12_2_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCBCC16-DDED-476B-9C9E-40753167714E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B31C209B-DB64-48B4-95E2-AF982526B45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{233559DB-3CAE-4ECD-8146-D63B80D51A8F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EDBA0FA-7E0D-46BE-9B71-912F53A2D3DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>8,43%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>91,57%</t>
   </si>
   <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>12,06%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>81,58%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
   </si>
   <si>
     <t>80,43%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,1285 +254,1285 @@
     <t>17,6%</t>
   </si>
   <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>85,65%</t>
   </si>
   <si>
-    <t>83,7%</t>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>11,62%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>18,14%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>15,96%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>88,38%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>81,86%</t>
   </si>
   <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>19,83%</t>
@@ -1541,31 +1541,31 @@
     <t>18,58%</t>
   </si>
   <si>
-    <t>20,85%</t>
+    <t>20,8%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>80,17%</t>
   </si>
   <si>
-    <t>79,15%</t>
+    <t>79,2%</t>
   </si>
   <si>
     <t>81,42%</t>
@@ -1980,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C39524-DE83-4F78-974F-35D8FC146569}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18932C5C-E3B4-4DD5-889F-F2E482B0DE1F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3061,7 +3061,7 @@
         <v>1603</v>
       </c>
       <c r="N22" s="7">
-        <v>1641784</v>
+        <v>1641785</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3163,7 +3163,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3199,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E03EC0E-EA0E-43B2-AB87-EA8B85503DC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F538E1D0-5D60-4365-B024-B737379A3CF4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4418,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C2A41-2C7E-45E6-AA2C-4DD9930436F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56077C48-81E3-4D7A-ABAE-27E80B1A4046}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5028,7 +5028,7 @@
         <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -5037,13 +5037,13 @@
         <v>227540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5058,13 @@
         <v>544981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -5073,13 +5073,13 @@
         <v>521458</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -5088,13 +5088,13 @@
         <v>1066440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5162,13 @@
         <v>91151</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -5177,13 +5177,13 @@
         <v>140698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -5192,13 +5192,13 @@
         <v>231849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,10 +5213,10 @@
         <v>385741</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>350</v>
@@ -5478,7 +5478,7 @@
         <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>710</v>
@@ -5487,13 +5487,13 @@
         <v>786816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>1235</v>
@@ -5502,13 +5502,13 @@
         <v>1318049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5523,13 @@
         <v>2859006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>2622</v>
@@ -5538,13 +5538,13 @@
         <v>2751506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>5324</v>
@@ -5553,13 +5553,13 @@
         <v>5610513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9990D5-06C3-4233-A9F9-D15141A13F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4C11B3-2365-46A7-BC42-F09A6D3E0A28}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5761,13 @@
         <v>16187</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -5776,13 +5776,13 @@
         <v>53391</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -5791,13 +5791,13 @@
         <v>69578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5812,13 @@
         <v>361492</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>175</v>
@@ -5827,13 +5827,13 @@
         <v>299877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>340</v>
@@ -5842,13 +5842,13 @@
         <v>661369</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5916,13 @@
         <v>38215</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -5931,13 +5931,13 @@
         <v>61330</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -5946,13 +5946,13 @@
         <v>99544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5967,13 @@
         <v>390181</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -5982,13 +5982,13 @@
         <v>437247</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>667</v>
@@ -5997,13 +5997,13 @@
         <v>827429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6071,13 @@
         <v>78415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -6086,13 +6086,13 @@
         <v>85144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>71</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -6101,13 +6101,13 @@
         <v>163558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6122,13 @@
         <v>477865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>703</v>
@@ -6137,13 +6137,13 @@
         <v>498332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>1172</v>
@@ -6152,13 +6152,13 @@
         <v>976197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6226,13 @@
         <v>110729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>252</v>
@@ -6241,13 +6241,13 @@
         <v>156217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>367</v>
@@ -6256,13 +6256,13 @@
         <v>266946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6277,13 @@
         <v>613261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="H14" s="7">
         <v>889</v>
@@ -6292,28 +6292,28 @@
         <v>591044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M14" s="7">
         <v>1439</v>
       </c>
       <c r="N14" s="7">
-        <v>1204306</v>
+        <v>1204305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,7 +6355,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6381,13 +6381,13 @@
         <v>126182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H16" s="7">
         <v>294</v>
@@ -6396,13 +6396,13 @@
         <v>165092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M16" s="7">
         <v>443</v>
@@ -6411,13 +6411,13 @@
         <v>291274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6432,13 @@
         <v>473975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>707</v>
@@ -6447,13 +6447,13 @@
         <v>431316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M17" s="7">
         <v>1221</v>
@@ -6462,7 +6462,7 @@
         <v>905291</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>472</v>
@@ -6584,7 +6584,7 @@
         <v>729</v>
       </c>
       <c r="D20" s="7">
-        <v>499142</v>
+        <v>499143</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>483</v>
@@ -6635,7 +6635,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6718,7 +6718,7 @@
         <v>2097</v>
       </c>
       <c r="N22" s="7">
-        <v>1425626</v>
+        <v>1425627</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>498</v>
@@ -6820,7 +6820,7 @@
         <v>8734</v>
       </c>
       <c r="N24" s="7">
-        <v>7188315</v>
+        <v>7188316</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P12_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P12_2_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B31C209B-DB64-48B4-95E2-AF982526B45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A768EBC-38C4-411B-99A4-E312AB94BF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EDBA0FA-7E0D-46BE-9B71-912F53A2D3DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{782A5B7A-F8D0-46F2-8936-3AC2E5BB51D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
   <si>
     <t>Población que tuvo mucha energía alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>8,43%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>11,84%</t>
@@ -98,7 +98,7 @@
     <t>9,9%</t>
   </si>
   <si>
-    <t>13,88%</t>
+    <t>14,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>91,57%</t>
   </si>
   <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,12%</t>
+    <t>86,0%</t>
   </si>
   <si>
     <t>90,1%</t>
@@ -140,55 +140,55 @@
     <t>12,06%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>81,58%</t>
   </si>
   <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>80,43%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,1170 +254,1152 @@
     <t>17,6%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>22,92%</t>
   </si>
   <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
     <t>20,38%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
     <t>84,04%</t>
   </si>
   <si>
@@ -1532,9 +1514,6 @@
     <t>20,25%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
     <t>19,83%</t>
   </si>
   <si>
@@ -1554,9 +1533,6 @@
   </si>
   <si>
     <t>77,46%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
   </si>
   <si>
     <t>79,75%</t>
@@ -1980,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18932C5C-E3B4-4DD5-889F-F2E482B0DE1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F1A5A4-C2B8-44DC-8EA4-F0CCA3FCE9E9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3082,7 +3058,7 @@
         <v>2580</v>
       </c>
       <c r="D23" s="7">
-        <v>2637326</v>
+        <v>2637325</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3133,7 +3109,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3199,7 +3175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F538E1D0-5D60-4365-B024-B737379A3CF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC0D38B-2AA1-4F97-BAD6-966D179E6315}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3794,7 +3770,7 @@
         <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -3803,13 +3779,13 @@
         <v>163974</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>231</v>
@@ -3818,13 +3794,13 @@
         <v>263640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,10 +3818,10 @@
         <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>394</v>
@@ -3854,13 +3830,13 @@
         <v>450252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>854</v>
@@ -3869,10 +3845,10 @@
         <v>964071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>215</v>
@@ -4418,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56077C48-81E3-4D7A-ABAE-27E80B1A4046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A318F-4C2C-463F-BB32-9BFBCBB775AA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4873,7 +4849,7 @@
         <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>155</v>
@@ -4885,10 +4861,10 @@
         <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4879,13 @@
         <v>603920</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>569</v>
@@ -4918,13 +4894,13 @@
         <v>565402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>1145</v>
@@ -4936,10 +4912,10 @@
         <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +4983,13 @@
         <v>99921</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -5022,13 +4998,13 @@
         <v>127619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -5037,13 +5013,13 @@
         <v>227540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5034,13 @@
         <v>544981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -5073,13 +5049,13 @@
         <v>521458</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -5088,13 +5064,13 @@
         <v>1066440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5138,13 @@
         <v>91151</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -5177,13 +5153,13 @@
         <v>140698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -5192,13 +5168,13 @@
         <v>231849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5189,13 @@
         <v>385741</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>307</v>
@@ -5228,13 +5204,13 @@
         <v>353912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>646</v>
@@ -5243,13 +5219,13 @@
         <v>739654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5293,13 @@
         <v>196095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>268</v>
@@ -5332,13 +5308,13 @@
         <v>322174</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>483</v>
@@ -5347,13 +5323,13 @@
         <v>518269</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5344,13 @@
         <v>394246</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>386</v>
@@ -5383,13 +5359,13 @@
         <v>454486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>797</v>
@@ -5398,13 +5374,13 @@
         <v>848732</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5448,13 @@
         <v>531234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>710</v>
@@ -5487,13 +5463,13 @@
         <v>786816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>1235</v>
@@ -5502,13 +5478,13 @@
         <v>1318049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5499,13 @@
         <v>2859006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>2622</v>
@@ -5538,13 +5514,13 @@
         <v>2751506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>5324</v>
@@ -5553,13 +5529,13 @@
         <v>5610513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4C11B3-2365-46A7-BC42-F09A6D3E0A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D8E42B-9866-4D4E-B7F0-07D2D675E94A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5737,13 @@
         <v>16187</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -5776,13 +5752,13 @@
         <v>53391</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -5791,13 +5767,13 @@
         <v>69578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5788,13 @@
         <v>361492</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>175</v>
@@ -5827,13 +5803,13 @@
         <v>299877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>340</v>
@@ -5842,13 +5818,13 @@
         <v>661369</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5892,13 @@
         <v>38215</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -5931,13 +5907,13 @@
         <v>61330</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -5946,13 +5922,13 @@
         <v>99544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5943,13 @@
         <v>390181</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -5982,13 +5958,13 @@
         <v>437247</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M8" s="7">
         <v>667</v>
@@ -5997,13 +5973,13 @@
         <v>827429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6047,13 @@
         <v>78415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>291</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -6086,13 +6062,13 @@
         <v>85144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -6101,13 +6077,13 @@
         <v>163558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6098,13 @@
         <v>477865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7">
         <v>703</v>
@@ -6137,13 +6113,13 @@
         <v>498332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>1172</v>
@@ -6152,13 +6128,13 @@
         <v>976197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6202,13 @@
         <v>110729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>252</v>
@@ -6241,13 +6217,13 @@
         <v>156217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>367</v>
@@ -6256,13 +6232,13 @@
         <v>266946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6253,13 @@
         <v>613261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
         <v>889</v>
@@ -6292,13 +6268,13 @@
         <v>591044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>1439</v>
@@ -6307,13 +6283,13 @@
         <v>1204305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,10 +6360,10 @@
         <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>294</v>
@@ -6396,13 +6372,13 @@
         <v>165092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>443</v>
@@ -6411,13 +6387,13 @@
         <v>291274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,10 +6411,10 @@
         <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>707</v>
@@ -6447,13 +6423,13 @@
         <v>431316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>1221</v>
@@ -6462,13 +6438,13 @@
         <v>905291</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6512,13 @@
         <v>198612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>636</v>
@@ -6551,13 +6527,13 @@
         <v>336113</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>935</v>
@@ -6566,13 +6542,13 @@
         <v>534725</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6563,13 @@
         <v>499143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>1069</v>
@@ -6602,13 +6578,13 @@
         <v>688955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>1798</v>
@@ -6617,13 +6593,13 @@
         <v>1188098</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6667,13 @@
         <v>568339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>1420</v>
@@ -6706,13 +6682,13 @@
         <v>857287</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>2097</v>
@@ -6721,13 +6697,13 @@
         <v>1425627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6718,13 @@
         <v>2815917</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H23" s="7">
         <v>3939</v>
@@ -6757,13 +6733,13 @@
         <v>2946772</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>6637</v>
@@ -6772,13 +6748,13 @@
         <v>5762689</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
